--- a/Desarrollo/SMZR/Pruebas/SMZR_PF.xlsx
+++ b/Desarrollo/SMZR/Pruebas/SMZR_PF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FISI\2020-1\GCM\RebroteSolution\RebroteSolution\Desarrollo\SMZR\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90AFD2F-90C6-4A87-85E7-285EA7D038D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623BEFF-D815-41DC-88FD-0AC617B723BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1410E26-431E-45F2-A8C3-101D88D6B81C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Menú</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>inicio de session</t>
-  </si>
-  <si>
     <t>Cuando un usuario ingresa una contraseña incorrecta se debe evitar mostrar mensajes relacionados a errores de codigo, muestra el mensaje: "code 401"</t>
   </si>
   <si>
@@ -91,13 +88,19 @@
   </si>
   <si>
     <t>Al ingresar al formulario y tratar de regresar al menu principal el sistema regresa a la misma vista con lo que es imposible volver al menu, se debe salir de la aplicación y cerrarla completamente para volver a ingresar o llenar todo el formulario para poder salir. VER IMAGEN 01</t>
+  </si>
+  <si>
+    <t>Sistema evaluado:  SMZR ( Sistema de Monitoreo por Zonas de Riesgo)</t>
+  </si>
+  <si>
+    <t>Inicio de sesión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +108,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -167,57 +224,14 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -292,7 +306,7 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -301,29 +315,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+        <color theme="0"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -335,9 +347,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -350,9 +360,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -363,38 +371,28 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -402,58 +400,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Énfasis2" xfId="1" builtinId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,176 +818,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24185E42-85B4-405F-AF38-5C125EE4566A}">
-  <dimension ref="A5:E24"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1"/>
     <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="56.88671875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>4</v>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="21"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="5">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1003,7 +1004,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
